--- a/dataanalysis/data/predictions/1000/09221047_1050.xlsx
+++ b/dataanalysis/data/predictions/1000/09221047_1050.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="138">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-22</t>
   </si>
   <si>
@@ -425,12 +428,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -788,13 +785,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH53"/>
+  <dimension ref="A1:AI53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -897,19 +894,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300007</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>0.8100000000000001</v>
@@ -927,7 +927,7 @@
         <v>114094.62</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -969,10 +969,25 @@
         <v>-0.13</v>
       </c>
       <c r="X2" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="Y2">
+        <v>2.23</v>
+      </c>
+      <c r="Z2">
+        <v>66.98</v>
+      </c>
+      <c r="AA2">
+        <v>5.63</v>
       </c>
       <c r="AC2" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -980,22 +995,25 @@
       <c r="AG2">
         <v>6.566947937011719</v>
       </c>
-      <c r="AH2" t="s">
-        <v>137</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300331</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-2.63</v>
@@ -1013,7 +1031,7 @@
         <v>97893.75</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3">
         <v>12</v>
@@ -1055,10 +1073,25 @@
         <v>-0.63</v>
       </c>
       <c r="X3" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="Y3">
+        <v>-3.71</v>
+      </c>
+      <c r="Z3">
+        <v>38.56</v>
+      </c>
+      <c r="AA3">
+        <v>-1.88</v>
       </c>
       <c r="AC3" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1066,22 +1099,25 @@
       <c r="AG3">
         <v>4.550885677337646</v>
       </c>
-      <c r="AH3" t="s">
-        <v>137</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300433</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>6.82</v>
@@ -1099,7 +1135,7 @@
         <v>353296.44</v>
       </c>
       <c r="J4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1141,10 +1177,25 @@
         <v>0.16</v>
       </c>
       <c r="X4" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="Y4">
+        <v>-2.9</v>
+      </c>
+      <c r="Z4">
+        <v>33.26</v>
+      </c>
+      <c r="AA4">
+        <v>2.06</v>
       </c>
       <c r="AC4" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1152,22 +1203,25 @@
       <c r="AG4">
         <v>-6.782347679138184</v>
       </c>
-      <c r="AH4" t="s">
-        <v>137</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300469</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-2.69</v>
@@ -1185,7 +1239,7 @@
         <v>71186.46000000001</v>
       </c>
       <c r="J5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K5">
         <v>23</v>
@@ -1227,10 +1281,25 @@
         <v>-0.2</v>
       </c>
       <c r="X5" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="Y5">
+        <v>-0.29</v>
+      </c>
+      <c r="Z5">
+        <v>89.7</v>
+      </c>
+      <c r="AA5">
+        <v>6.44</v>
       </c>
       <c r="AC5" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1238,22 +1307,25 @@
       <c r="AG5">
         <v>3.203014373779297</v>
       </c>
-      <c r="AH5" t="s">
-        <v>137</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300475</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>6.41</v>
@@ -1271,7 +1343,7 @@
         <v>248470.27</v>
       </c>
       <c r="J6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K6">
         <v>12</v>
@@ -1313,10 +1385,25 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X6" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y6">
+        <v>-4.92</v>
+      </c>
+      <c r="Z6">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="AA6">
+        <v>6.65</v>
       </c>
       <c r="AC6" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1324,22 +1411,25 @@
       <c r="AG6">
         <v>7.311258316040039</v>
       </c>
-      <c r="AH6" t="s">
-        <v>137</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300499</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>4.75</v>
@@ -1357,7 +1447,7 @@
         <v>106046.68</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K7">
         <v>5</v>
@@ -1399,10 +1489,25 @@
         <v>0.25</v>
       </c>
       <c r="X7" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="Y7">
+        <v>-1.27</v>
+      </c>
+      <c r="Z7">
+        <v>36.19</v>
+      </c>
+      <c r="AA7">
+        <v>8.029999999999999</v>
       </c>
       <c r="AC7" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1410,22 +1515,25 @@
       <c r="AG7">
         <v>4.245844841003418</v>
       </c>
-      <c r="AH7" t="s">
-        <v>137</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300507</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-0.2</v>
@@ -1443,7 +1551,7 @@
         <v>45084.21</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1485,10 +1593,25 @@
         <v>-0.54</v>
       </c>
       <c r="X8" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="Y8">
+        <v>0.6</v>
+      </c>
+      <c r="Z8">
+        <v>10.28</v>
+      </c>
+      <c r="AA8">
+        <v>0.88</v>
       </c>
       <c r="AC8" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1496,22 +1619,25 @@
       <c r="AG8">
         <v>3.622849702835083</v>
       </c>
-      <c r="AH8" t="s">
-        <v>137</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300521</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>3.66</v>
@@ -1529,7 +1655,7 @@
         <v>21755.12</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1571,10 +1697,25 @@
         <v>0.35</v>
       </c>
       <c r="X9" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y9">
+        <v>-3.98</v>
+      </c>
+      <c r="Z9">
+        <v>33.81</v>
+      </c>
+      <c r="AA9">
+        <v>2.95</v>
       </c>
       <c r="AC9" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1582,22 +1723,25 @@
       <c r="AG9">
         <v>4.288825988769531</v>
       </c>
-      <c r="AH9" t="s">
-        <v>137</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300539</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>20</v>
@@ -1615,7 +1759,7 @@
         <v>105165.3</v>
       </c>
       <c r="J10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K10">
         <v>12</v>
@@ -1657,10 +1801,25 @@
         <v>1.31</v>
       </c>
       <c r="X10" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="Y10">
+        <v>1.34</v>
+      </c>
+      <c r="Z10">
+        <v>52.89</v>
+      </c>
+      <c r="AA10">
+        <v>9.1</v>
       </c>
       <c r="AC10" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -1668,22 +1827,25 @@
       <c r="AG10">
         <v>9.529424667358398</v>
       </c>
-      <c r="AH10" t="s">
-        <v>138</v>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300604</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>3.02</v>
@@ -1701,7 +1863,7 @@
         <v>115240.46</v>
       </c>
       <c r="J11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K11">
         <v>19</v>
@@ -1743,10 +1905,25 @@
         <v>0.09</v>
       </c>
       <c r="X11" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="Y11">
+        <v>20</v>
+      </c>
+      <c r="Z11">
+        <v>80.27</v>
+      </c>
+      <c r="AA11">
+        <v>21.77</v>
       </c>
       <c r="AC11" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1754,22 +1931,25 @@
       <c r="AG11">
         <v>0.2733603417873383</v>
       </c>
-      <c r="AH11" t="s">
-        <v>137</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300620</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>12.49</v>
@@ -1787,7 +1967,7 @@
         <v>358309.53</v>
       </c>
       <c r="J12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K12">
         <v>9</v>
@@ -1829,10 +2009,25 @@
         <v>0.45</v>
       </c>
       <c r="X12" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y12">
+        <v>-1.85</v>
+      </c>
+      <c r="Z12">
+        <v>140.6</v>
+      </c>
+      <c r="AA12">
+        <v>-0.28</v>
       </c>
       <c r="AC12" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>1</v>
@@ -1840,22 +2035,25 @@
       <c r="AG12">
         <v>4.601540088653564</v>
       </c>
-      <c r="AH12" t="s">
-        <v>138</v>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300684</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>2.6</v>
@@ -1873,7 +2071,7 @@
         <v>78105.25</v>
       </c>
       <c r="J13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13">
         <v>5</v>
@@ -1915,10 +2113,25 @@
         <v>0.65</v>
       </c>
       <c r="X13" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="Y13">
+        <v>-4.84</v>
+      </c>
+      <c r="Z13">
+        <v>45.5</v>
+      </c>
+      <c r="AA13">
+        <v>2.06</v>
       </c>
       <c r="AC13" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1926,22 +2139,25 @@
       <c r="AG13">
         <v>5.69304370880127</v>
       </c>
-      <c r="AH13" t="s">
-        <v>137</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300806</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>3.81</v>
@@ -1959,7 +2175,7 @@
         <v>39556.72</v>
       </c>
       <c r="J14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K14">
         <v>7</v>
@@ -2001,10 +2217,25 @@
         <v>0.06</v>
       </c>
       <c r="X14" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="Y14">
+        <v>-3.07</v>
+      </c>
+      <c r="Z14">
+        <v>27.87</v>
+      </c>
+      <c r="AA14">
+        <v>3.22</v>
       </c>
       <c r="AC14" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2012,22 +2243,25 @@
       <c r="AG14">
         <v>2.556935787200928</v>
       </c>
-      <c r="AH14" t="s">
-        <v>137</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300814</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-0.5600000000000001</v>
@@ -2045,7 +2279,7 @@
         <v>39708.61</v>
       </c>
       <c r="J15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K15">
         <v>5</v>
@@ -2087,10 +2321,25 @@
         <v>0.01</v>
       </c>
       <c r="X15" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="Y15">
+        <v>-0.67</v>
+      </c>
+      <c r="Z15">
+        <v>58.5</v>
+      </c>
+      <c r="AA15">
+        <v>13.13</v>
       </c>
       <c r="AC15" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
       </c>
       <c r="AF15">
         <v>1</v>
@@ -2098,22 +2347,25 @@
       <c r="AG15">
         <v>5.871045589447021</v>
       </c>
-      <c r="AH15" t="s">
-        <v>138</v>
+      <c r="AH15">
+        <v>1</v>
+      </c>
+      <c r="AI15">
+        <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300843</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>5.85</v>
@@ -2131,7 +2383,7 @@
         <v>53450.41</v>
       </c>
       <c r="J16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K16">
         <v>4</v>
@@ -2173,10 +2425,25 @@
         <v>0.26</v>
       </c>
       <c r="X16" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="Y16">
+        <v>-6.78</v>
+      </c>
+      <c r="Z16">
+        <v>61.98</v>
+      </c>
+      <c r="AA16">
+        <v>1.27</v>
       </c>
       <c r="AC16" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2184,22 +2451,25 @@
       <c r="AG16">
         <v>3.204484939575195</v>
       </c>
-      <c r="AH16" t="s">
-        <v>137</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300857</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>7.26</v>
@@ -2217,7 +2487,7 @@
         <v>253353.6</v>
       </c>
       <c r="J17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K17">
         <v>22</v>
@@ -2259,10 +2529,25 @@
         <v>0.16</v>
       </c>
       <c r="X17" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="Y17">
+        <v>-3.46</v>
+      </c>
+      <c r="Z17">
+        <v>179.59</v>
+      </c>
+      <c r="AA17">
+        <v>2.45</v>
       </c>
       <c r="AC17" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2270,22 +2555,25 @@
       <c r="AG17">
         <v>6.62082052230835</v>
       </c>
-      <c r="AH17" t="s">
-        <v>137</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300859</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>-5.16</v>
@@ -2303,7 +2591,7 @@
         <v>71151.05</v>
       </c>
       <c r="J18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K18">
         <v>10</v>
@@ -2345,10 +2633,25 @@
         <v>-0.55</v>
       </c>
       <c r="X18" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="Y18">
+        <v>-7.81</v>
+      </c>
+      <c r="Z18">
+        <v>54.5</v>
+      </c>
+      <c r="AA18">
+        <v>0.83</v>
       </c>
       <c r="AC18" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2356,22 +2659,25 @@
       <c r="AG18">
         <v>4.588654518127441</v>
       </c>
-      <c r="AH18" t="s">
-        <v>137</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300959</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>11.04</v>
@@ -2389,7 +2695,7 @@
         <v>88288.11</v>
       </c>
       <c r="J19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K19">
         <v>5</v>
@@ -2431,10 +2737,25 @@
         <v>0.98</v>
       </c>
       <c r="X19" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="Y19">
+        <v>-0.75</v>
+      </c>
+      <c r="Z19">
+        <v>82.19</v>
+      </c>
+      <c r="AA19">
+        <v>2.7</v>
       </c>
       <c r="AC19" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2442,22 +2763,25 @@
       <c r="AG19">
         <v>6.736484050750732</v>
       </c>
-      <c r="AH19" t="s">
-        <v>137</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300969</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>4.95</v>
@@ -2475,7 +2799,7 @@
         <v>28466.09</v>
       </c>
       <c r="J20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K20">
         <v>4</v>
@@ -2517,10 +2841,25 @@
         <v>0.49</v>
       </c>
       <c r="X20" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="Y20">
+        <v>15.26</v>
+      </c>
+      <c r="Z20">
+        <v>143.7</v>
+      </c>
+      <c r="AA20">
+        <v>19.07</v>
       </c>
       <c r="AC20" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2528,22 +2867,25 @@
       <c r="AG20">
         <v>2.479419231414795</v>
       </c>
-      <c r="AH20" t="s">
-        <v>137</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300984</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>1.69</v>
@@ -2561,7 +2903,7 @@
         <v>18008.67</v>
       </c>
       <c r="J21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K21">
         <v>4</v>
@@ -2603,10 +2945,25 @@
         <v>-0.12</v>
       </c>
       <c r="X21" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="Y21">
+        <v>-1.48</v>
+      </c>
+      <c r="Z21">
+        <v>78.72</v>
+      </c>
+      <c r="AA21">
+        <v>3.31</v>
       </c>
       <c r="AC21" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2614,22 +2971,25 @@
       <c r="AG21">
         <v>4.470456123352051</v>
       </c>
-      <c r="AH21" t="s">
-        <v>137</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>301008</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>6.23</v>
@@ -2647,7 +3007,7 @@
         <v>57489.48</v>
       </c>
       <c r="J22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K22">
         <v>5</v>
@@ -2689,10 +3049,25 @@
         <v>0.77</v>
       </c>
       <c r="X22" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="Y22">
+        <v>8.16</v>
+      </c>
+      <c r="Z22">
+        <v>55.05</v>
+      </c>
+      <c r="AA22">
+        <v>20.51</v>
       </c>
       <c r="AC22" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2700,22 +3075,25 @@
       <c r="AG22">
         <v>4.117280006408691</v>
       </c>
-      <c r="AH22" t="s">
-        <v>137</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>301013</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>15.3</v>
@@ -2733,7 +3111,7 @@
         <v>174774.5</v>
       </c>
       <c r="J23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -2775,10 +3153,25 @@
         <v>-0.4</v>
       </c>
       <c r="X23" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y23">
+        <v>-2.89</v>
+      </c>
+      <c r="Z23">
+        <v>30.88</v>
+      </c>
+      <c r="AA23">
+        <v>0.65</v>
       </c>
       <c r="AC23" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2786,22 +3179,25 @@
       <c r="AG23">
         <v>17.42386054992676</v>
       </c>
-      <c r="AH23" t="s">
-        <v>137</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>301018</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>6.82</v>
@@ -2819,7 +3215,7 @@
         <v>66410.49000000001</v>
       </c>
       <c r="J24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K24">
         <v>5</v>
@@ -2861,10 +3257,25 @@
         <v>0.24</v>
       </c>
       <c r="X24" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="Y24">
+        <v>-5.3</v>
+      </c>
+      <c r="Z24">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="AA24">
+        <v>3.24</v>
       </c>
       <c r="AC24" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2872,22 +3283,25 @@
       <c r="AG24">
         <v>2.709780931472778</v>
       </c>
-      <c r="AH24" t="s">
-        <v>137</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>301150</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>5.17</v>
@@ -2905,7 +3319,7 @@
         <v>72853.77</v>
       </c>
       <c r="J25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K25">
         <v>15</v>
@@ -2947,10 +3361,25 @@
         <v>-0.16</v>
       </c>
       <c r="X25" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="Y25">
+        <v>-4.05</v>
+      </c>
+      <c r="Z25">
+        <v>44</v>
+      </c>
+      <c r="AA25">
+        <v>-0.38</v>
       </c>
       <c r="AC25" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2958,22 +3387,25 @@
       <c r="AG25">
         <v>4.748447895050049</v>
       </c>
-      <c r="AH25" t="s">
-        <v>137</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>301183</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-3.19</v>
@@ -2991,7 +3423,7 @@
         <v>56170.03</v>
       </c>
       <c r="J26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K26">
         <v>8</v>
@@ -3033,10 +3465,25 @@
         <v>-0.28</v>
       </c>
       <c r="X26" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="Y26">
+        <v>-7.03</v>
+      </c>
+      <c r="Z26">
+        <v>113.5</v>
+      </c>
+      <c r="AA26">
+        <v>6.49</v>
       </c>
       <c r="AC26" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3044,22 +3491,25 @@
       <c r="AG26">
         <v>13.79797172546387</v>
       </c>
-      <c r="AH26" t="s">
-        <v>137</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>301307</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>0.1</v>
@@ -3077,7 +3527,7 @@
         <v>31837.47</v>
       </c>
       <c r="J27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K27">
         <v>9</v>
@@ -3119,10 +3569,25 @@
         <v>-0.24</v>
       </c>
       <c r="X27" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="Y27">
+        <v>0.28</v>
+      </c>
+      <c r="Z27">
+        <v>41.86</v>
+      </c>
+      <c r="AA27">
+        <v>4.44</v>
       </c>
       <c r="AC27" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3130,22 +3595,25 @@
       <c r="AG27">
         <v>10.54633617401123</v>
       </c>
-      <c r="AH27" t="s">
-        <v>137</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>301308</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>11.16</v>
@@ -3163,7 +3631,7 @@
         <v>260148.38</v>
       </c>
       <c r="J28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -3205,10 +3673,25 @@
         <v>0.51</v>
       </c>
       <c r="X28" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y28">
+        <v>2.56</v>
+      </c>
+      <c r="Z28">
+        <v>144.67</v>
+      </c>
+      <c r="AA28">
+        <v>1.72</v>
       </c>
       <c r="AC28" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3216,22 +3699,25 @@
       <c r="AG28">
         <v>-5.368681907653809</v>
       </c>
-      <c r="AH28" t="s">
-        <v>137</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>301389</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>0.3</v>
@@ -3249,7 +3735,7 @@
         <v>50689.4</v>
       </c>
       <c r="J29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K29">
         <v>5</v>
@@ -3291,10 +3777,25 @@
         <v>-0.3</v>
       </c>
       <c r="X29" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="Y29">
+        <v>-2.13</v>
+      </c>
+      <c r="Z29">
+        <v>78.58</v>
+      </c>
+      <c r="AA29">
+        <v>5.17</v>
       </c>
       <c r="AC29" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3302,22 +3803,25 @@
       <c r="AG29">
         <v>34.74134063720703</v>
       </c>
-      <c r="AH29" t="s">
-        <v>137</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>301413</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>2.69</v>
@@ -3335,7 +3839,7 @@
         <v>59979.62</v>
       </c>
       <c r="J30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K30">
         <v>22</v>
@@ -3377,10 +3881,25 @@
         <v>0.14</v>
       </c>
       <c r="X30" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="Y30">
+        <v>-2.85</v>
+      </c>
+      <c r="Z30">
+        <v>177.5</v>
+      </c>
+      <c r="AA30">
+        <v>1.08</v>
       </c>
       <c r="AC30" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3388,22 +3907,25 @@
       <c r="AG30">
         <v>5.436258792877197</v>
       </c>
-      <c r="AH30" t="s">
-        <v>137</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>301488</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>0.95</v>
@@ -3421,7 +3943,7 @@
         <v>63271.48</v>
       </c>
       <c r="J31" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K31">
         <v>19</v>
@@ -3463,10 +3985,25 @@
         <v>0.59</v>
       </c>
       <c r="X31" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="Y31">
+        <v>4.38</v>
+      </c>
+      <c r="Z31">
+        <v>194.52</v>
+      </c>
+      <c r="AA31">
+        <v>4.68</v>
       </c>
       <c r="AC31" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3474,22 +4011,25 @@
       <c r="AG31">
         <v>2.583400011062622</v>
       </c>
-      <c r="AH31" t="s">
-        <v>137</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>301489</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>9.67</v>
@@ -3507,7 +4047,7 @@
         <v>64979.25</v>
       </c>
       <c r="J32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K32">
         <v>10</v>
@@ -3549,10 +4089,25 @@
         <v>0.18</v>
       </c>
       <c r="X32" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="Y32">
+        <v>0.15</v>
+      </c>
+      <c r="Z32">
+        <v>291.88</v>
+      </c>
+      <c r="AA32">
+        <v>10.98</v>
       </c>
       <c r="AC32" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3560,22 +4115,25 @@
       <c r="AG32">
         <v>-2.596224308013916</v>
       </c>
-      <c r="AH32" t="s">
-        <v>137</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>301550</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>7.88</v>
@@ -3593,7 +4151,7 @@
         <v>64313.25</v>
       </c>
       <c r="J33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K33">
         <v>4</v>
@@ -3635,10 +4193,25 @@
         <v>0.1</v>
       </c>
       <c r="X33" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="Y33">
+        <v>1.49</v>
+      </c>
+      <c r="Z33">
+        <v>135.5</v>
+      </c>
+      <c r="AA33">
+        <v>3.89</v>
       </c>
       <c r="AC33" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3646,22 +4219,25 @@
       <c r="AG33">
         <v>9.035398483276367</v>
       </c>
-      <c r="AH33" t="s">
-        <v>137</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>688028</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>8.77</v>
@@ -3679,7 +4255,7 @@
         <v>47147.66</v>
       </c>
       <c r="J34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K34">
         <v>11</v>
@@ -3721,10 +4297,25 @@
         <v>-0.58</v>
       </c>
       <c r="X34" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="Y34">
+        <v>-3.37</v>
+      </c>
+      <c r="Z34">
+        <v>51.83</v>
+      </c>
+      <c r="AA34">
+        <v>6.36</v>
       </c>
       <c r="AC34" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3732,22 +4323,25 @@
       <c r="AG34">
         <v>-3.315395593643188</v>
       </c>
-      <c r="AH34" t="s">
-        <v>137</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>688041</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>3.52</v>
@@ -3765,7 +4359,7 @@
         <v>677095.83</v>
       </c>
       <c r="J35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3807,10 +4401,25 @@
         <v>0.05</v>
       </c>
       <c r="X35" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y35">
+        <v>-2.51</v>
+      </c>
+      <c r="Z35">
+        <v>264.88</v>
+      </c>
+      <c r="AA35">
+        <v>8.44</v>
       </c>
       <c r="AC35" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3818,22 +4427,25 @@
       <c r="AG35">
         <v>12.27644157409668</v>
       </c>
-      <c r="AH35" t="s">
-        <v>137</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>688062</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>8.52</v>
@@ -3851,7 +4463,7 @@
         <v>79468.16</v>
       </c>
       <c r="J36" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -3893,10 +4505,25 @@
         <v>0.43</v>
       </c>
       <c r="X36" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="Y36">
+        <v>-7.62</v>
+      </c>
+      <c r="Z36">
+        <v>54.35</v>
+      </c>
+      <c r="AA36">
+        <v>-2.81</v>
       </c>
       <c r="AC36" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3904,22 +4531,25 @@
       <c r="AG36">
         <v>-0.7886924743652344</v>
       </c>
-      <c r="AH36" t="s">
-        <v>137</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>688110</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>6.76</v>
@@ -3937,7 +4567,7 @@
         <v>210876.49</v>
       </c>
       <c r="J37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -3979,10 +4609,25 @@
         <v>0.12</v>
       </c>
       <c r="X37" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y37">
+        <v>-5.64</v>
+      </c>
+      <c r="Z37">
+        <v>123.38</v>
+      </c>
+      <c r="AA37">
+        <v>3.47</v>
       </c>
       <c r="AC37" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3990,22 +4635,25 @@
       <c r="AG37">
         <v>-4.708123683929443</v>
       </c>
-      <c r="AH37" t="s">
-        <v>137</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>688135</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>3.7</v>
@@ -4023,7 +4671,7 @@
         <v>47364.99</v>
       </c>
       <c r="J38" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K38">
         <v>15</v>
@@ -4065,10 +4713,25 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X38" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y38">
+        <v>8.07</v>
+      </c>
+      <c r="Z38">
+        <v>38.9</v>
+      </c>
+      <c r="AA38">
+        <v>11.97</v>
       </c>
       <c r="AC38" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4076,22 +4739,25 @@
       <c r="AG38">
         <v>0.9721179008483887</v>
       </c>
-      <c r="AH38" t="s">
-        <v>137</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>688167</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>1.6</v>
@@ -4109,7 +4775,7 @@
         <v>88624.75999999999</v>
       </c>
       <c r="J39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K39">
         <v>12</v>
@@ -4151,10 +4817,25 @@
         <v>-0.15</v>
       </c>
       <c r="X39" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="Y39">
+        <v>-0.83</v>
+      </c>
+      <c r="Z39">
+        <v>176.55</v>
+      </c>
+      <c r="AA39">
+        <v>-1.2</v>
       </c>
       <c r="AC39" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4162,22 +4843,25 @@
       <c r="AG39">
         <v>4.217067718505859</v>
       </c>
-      <c r="AH39" t="s">
-        <v>137</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>688195</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>2.93</v>
@@ -4195,7 +4879,7 @@
         <v>138815.07</v>
       </c>
       <c r="J40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K40">
         <v>26</v>
@@ -4237,10 +4921,25 @@
         <v>-0.05</v>
       </c>
       <c r="X40" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y40">
+        <v>0.7</v>
+      </c>
+      <c r="Z40">
+        <v>145.46</v>
+      </c>
+      <c r="AA40">
+        <v>6.95</v>
       </c>
       <c r="AC40" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4248,22 +4947,25 @@
       <c r="AG40">
         <v>15.53816318511963</v>
       </c>
-      <c r="AH40" t="s">
-        <v>137</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>688205</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-1.11</v>
@@ -4281,7 +4983,7 @@
         <v>166310.37</v>
       </c>
       <c r="J41" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K41">
         <v>4</v>
@@ -4323,10 +5025,25 @@
         <v>-0.5</v>
       </c>
       <c r="X41" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y41">
+        <v>-10.14</v>
+      </c>
+      <c r="Z41">
+        <v>151.35</v>
+      </c>
+      <c r="AA41">
+        <v>-0.62</v>
       </c>
       <c r="AC41" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4334,22 +5051,25 @@
       <c r="AG41">
         <v>9.912190437316895</v>
       </c>
-      <c r="AH41" t="s">
-        <v>137</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>688228</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>6.7</v>
@@ -4367,7 +5087,7 @@
         <v>79869.75</v>
       </c>
       <c r="J42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K42">
         <v>9</v>
@@ -4409,10 +5129,25 @@
         <v>-0.06</v>
       </c>
       <c r="X42" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="Y42">
+        <v>-12.29</v>
+      </c>
+      <c r="Z42">
+        <v>207</v>
+      </c>
+      <c r="AA42">
+        <v>3.86</v>
       </c>
       <c r="AC42" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>1</v>
@@ -4420,22 +5155,25 @@
       <c r="AG42">
         <v>8.760692596435547</v>
       </c>
-      <c r="AH42" t="s">
-        <v>137</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>688306</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>3.4</v>
@@ -4453,7 +5191,7 @@
         <v>41174.88</v>
       </c>
       <c r="J43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K43">
         <v>3</v>
@@ -4495,10 +5233,25 @@
         <v>0</v>
       </c>
       <c r="X43" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="Y43">
+        <v>-3.84</v>
+      </c>
+      <c r="Z43">
+        <v>14.33</v>
+      </c>
+      <c r="AA43">
+        <v>2.5</v>
       </c>
       <c r="AC43" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4506,22 +5259,25 @@
       <c r="AG43">
         <v>1.198886871337891</v>
       </c>
-      <c r="AH43" t="s">
-        <v>137</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>688347</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-0.84</v>
@@ -4539,7 +5295,7 @@
         <v>96693.71000000001</v>
       </c>
       <c r="J44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K44">
         <v>8</v>
@@ -4581,10 +5337,25 @@
         <v>-0.11</v>
       </c>
       <c r="X44" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y44">
+        <v>-3.26</v>
+      </c>
+      <c r="Z44">
+        <v>84.5</v>
+      </c>
+      <c r="AA44">
+        <v>2.67</v>
       </c>
       <c r="AC44" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4592,22 +5363,25 @@
       <c r="AG44">
         <v>8.217829704284668</v>
       </c>
-      <c r="AH44" t="s">
-        <v>137</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>688400</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>5.99</v>
@@ -4625,7 +5399,7 @@
         <v>126426.01</v>
       </c>
       <c r="J45" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K45">
         <v>8</v>
@@ -4666,8 +5440,23 @@
       <c r="W45">
         <v>0.13</v>
       </c>
+      <c r="Y45">
+        <v>-2.54</v>
+      </c>
+      <c r="Z45">
+        <v>54.47</v>
+      </c>
+      <c r="AA45">
+        <v>1.3</v>
+      </c>
       <c r="AC45" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4675,22 +5464,25 @@
       <c r="AG45">
         <v>5.327098369598389</v>
       </c>
-      <c r="AH45" t="s">
-        <v>137</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>688498</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>-0.98</v>
@@ -4708,7 +5500,7 @@
         <v>121078.41</v>
       </c>
       <c r="J46" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K46">
         <v>9</v>
@@ -4750,10 +5542,25 @@
         <v>-0.34</v>
       </c>
       <c r="X46" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="Y46">
+        <v>-0.74</v>
+      </c>
+      <c r="Z46">
+        <v>415.28</v>
+      </c>
+      <c r="AA46">
+        <v>5.37</v>
       </c>
       <c r="AC46" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>1</v>
@@ -4761,22 +5568,25 @@
       <c r="AG46">
         <v>5.120115280151367</v>
       </c>
-      <c r="AH46" t="s">
-        <v>137</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>688521</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>17</v>
@@ -4794,7 +5604,7 @@
         <v>497538.05</v>
       </c>
       <c r="J47" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K47">
         <v>14</v>
@@ -4836,10 +5646,25 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="X47" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y47">
+        <v>1.48</v>
+      </c>
+      <c r="Z47">
+        <v>207.6</v>
+      </c>
+      <c r="AA47">
+        <v>2.56</v>
       </c>
       <c r="AC47" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4847,22 +5672,25 @@
       <c r="AG47">
         <v>-0.8127820491790771</v>
       </c>
-      <c r="AH47" t="s">
-        <v>137</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>688525</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>8.49</v>
@@ -4880,7 +5708,7 @@
         <v>209478.45</v>
       </c>
       <c r="J48" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -4922,10 +5750,25 @@
         <v>0.12</v>
       </c>
       <c r="X48" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="Y48">
+        <v>3.57</v>
+      </c>
+      <c r="Z48">
+        <v>89.95999999999999</v>
+      </c>
+      <c r="AA48">
+        <v>3.69</v>
       </c>
       <c r="AC48" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4933,22 +5776,25 @@
       <c r="AG48">
         <v>-13.4882173538208</v>
       </c>
-      <c r="AH48" t="s">
-        <v>137</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>688627</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>6.43</v>
@@ -4966,7 +5812,7 @@
         <v>36338.55</v>
       </c>
       <c r="J49" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K49">
         <v>7</v>
@@ -5008,10 +5854,25 @@
         <v>0.27</v>
       </c>
       <c r="X49" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y49">
+        <v>16.97</v>
+      </c>
+      <c r="Z49">
+        <v>183.6</v>
+      </c>
+      <c r="AA49">
+        <v>17.33</v>
       </c>
       <c r="AC49" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5019,22 +5880,25 @@
       <c r="AG49">
         <v>4.560520172119141</v>
       </c>
-      <c r="AH49" t="s">
-        <v>137</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>688629</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>2.22</v>
@@ -5052,7 +5916,7 @@
         <v>167400.18</v>
       </c>
       <c r="J50" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K50">
         <v>8</v>
@@ -5094,10 +5958,25 @@
         <v>-0.31</v>
       </c>
       <c r="X50" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y50">
+        <v>-3.62</v>
+      </c>
+      <c r="Z50">
+        <v>108.98</v>
+      </c>
+      <c r="AA50">
+        <v>1.58</v>
       </c>
       <c r="AC50" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5105,22 +5984,25 @@
       <c r="AG50">
         <v>4.571643352508545</v>
       </c>
-      <c r="AH50" t="s">
-        <v>137</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>688678</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>6.92</v>
@@ -5138,7 +6020,7 @@
         <v>44051.07</v>
       </c>
       <c r="J51" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K51">
         <v>3</v>
@@ -5180,10 +6062,25 @@
         <v>0.33</v>
       </c>
       <c r="X51" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="Y51">
+        <v>1.78</v>
+      </c>
+      <c r="Z51">
+        <v>37.39</v>
+      </c>
+      <c r="AA51">
+        <v>7.57</v>
       </c>
       <c r="AC51" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>1</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5191,22 +6088,25 @@
       <c r="AG51">
         <v>3.692445516586304</v>
       </c>
-      <c r="AH51" t="s">
-        <v>137</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>688766</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>3.57</v>
@@ -5224,7 +6124,7 @@
         <v>93621.67</v>
       </c>
       <c r="J52" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K52">
         <v>5</v>
@@ -5266,10 +6166,25 @@
         <v>0.64</v>
       </c>
       <c r="X52" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y52">
+        <v>-2.05</v>
+      </c>
+      <c r="Z52">
+        <v>110.3</v>
+      </c>
+      <c r="AA52">
+        <v>0.9399999999999999</v>
       </c>
       <c r="AC52" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5277,22 +6192,25 @@
       <c r="AG52">
         <v>0.6006672382354736</v>
       </c>
-      <c r="AH52" t="s">
-        <v>137</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>688981</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>1.56</v>
@@ -5310,7 +6228,7 @@
         <v>722315.01</v>
       </c>
       <c r="J53" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K53">
         <v>8</v>
@@ -5352,10 +6270,25 @@
         <v>-0.05</v>
       </c>
       <c r="X53" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y53">
+        <v>-0.32</v>
+      </c>
+      <c r="Z53">
+        <v>129.33</v>
+      </c>
+      <c r="AA53">
+        <v>4.95</v>
       </c>
       <c r="AC53" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5363,8 +6296,11 @@
       <c r="AG53">
         <v>26.67846488952637</v>
       </c>
-      <c r="AH53" t="s">
-        <v>137</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
